--- a/DateBase/orders/Dang Nguyen_2025-8-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -695,10 +695,169 @@
       <c r="C31" t="str">
         <v>544_空气草_undefined_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>6</v>
+      </c>
+      <c r="C34" t="str">
+        <v>356_绿枫叶山货_maple leaf small_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>558_油画小菊_Helenium_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>1</v>
+      </c>
+      <c r="C40" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F41" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>612_康乃馨古巴爱情_cuba love_undefined_20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2</v>
+      </c>
+      <c r="C44" t="str">
+        <v>383_油画向日葵_sunflower black_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>301_彩星 红_Tinted Gypso Red_ gypsophila_0.5kg</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F47" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>3</v>
+      </c>
+      <c r="C48" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L49"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -756,7 +915,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>016101066101061515306111115916101542101010151030150</v>
+        <v>0161010661010615153061111159161015421010101510301510551593055520201510301040202525</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-8-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-11.xlsx
@@ -917,6 +917,9 @@
       <c r="G2" t="str">
         <v>0161010661010615153061111159161015421010101510301510551593055520201510301040202525</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
